--- a/results/tables/inspect/<d_near_wyqtl.xlsx
+++ b/results/tables/inspect/<d_near_wyqtl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cody/github/CambridgeSemiticsLab/time_collocations/results/tables/inspect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B90E30B5-331A-3F4B-9D52-0A0D9F0BF5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E0D5EF87-24DC-D847-99F9-6DD0BF66095F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20120"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
